--- a/Code/Results/Cases/Case_5_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_184/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.36992046743796</v>
+        <v>19.54007855928528</v>
       </c>
       <c r="C2">
-        <v>7.623282450162604</v>
+        <v>6.403381025117031</v>
       </c>
       <c r="D2">
-        <v>2.421035319945494</v>
+        <v>4.736560110516001</v>
       </c>
       <c r="E2">
-        <v>6.029092249904895</v>
+        <v>10.65486524604357</v>
       </c>
       <c r="F2">
-        <v>36.04841993570347</v>
+        <v>50.32538137073519</v>
       </c>
       <c r="I2">
-        <v>24.75424858557975</v>
+        <v>36.22301452445411</v>
       </c>
       <c r="J2">
-        <v>5.792194099415889</v>
+        <v>9.96456123039037</v>
       </c>
       <c r="K2">
-        <v>13.85499217857286</v>
+        <v>17.35877020247769</v>
       </c>
       <c r="L2">
-        <v>7.377459931689562</v>
+        <v>12.05623818284223</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.35438223093848</v>
+        <v>24.47797805936221</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.54472218672548</v>
+        <v>19.42173598948629</v>
       </c>
       <c r="C3">
-        <v>7.093587719175623</v>
+        <v>6.274015419378872</v>
       </c>
       <c r="D3">
-        <v>2.340614712136094</v>
+        <v>4.735288515693775</v>
       </c>
       <c r="E3">
-        <v>6.009562173379756</v>
+        <v>10.67026975130645</v>
       </c>
       <c r="F3">
-        <v>35.54753121266567</v>
+        <v>50.34835583333942</v>
       </c>
       <c r="I3">
-        <v>24.64601305158067</v>
+        <v>36.27675806777527</v>
       </c>
       <c r="J3">
-        <v>5.828479530188725</v>
+        <v>9.98121583488812</v>
       </c>
       <c r="K3">
-        <v>13.21701232409073</v>
+        <v>17.28004288096013</v>
       </c>
       <c r="L3">
-        <v>7.268051211028445</v>
+        <v>12.06628163864897</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.54011947311541</v>
+        <v>24.53379105072677</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.02537666591208</v>
+        <v>19.35328567392238</v>
       </c>
       <c r="C4">
-        <v>6.787706396088512</v>
+        <v>6.195227297311263</v>
       </c>
       <c r="D4">
-        <v>2.290557476982785</v>
+        <v>4.735032054012245</v>
       </c>
       <c r="E4">
-        <v>5.999556102105489</v>
+        <v>10.68076458328736</v>
       </c>
       <c r="F4">
-        <v>35.26118402275517</v>
+        <v>50.37157890864855</v>
       </c>
       <c r="I4">
-        <v>24.59424675152987</v>
+        <v>36.31531285776769</v>
       </c>
       <c r="J4">
-        <v>5.851930495072709</v>
+        <v>9.992088785473468</v>
       </c>
       <c r="K4">
-        <v>12.81821193100467</v>
+        <v>17.23540360998659</v>
       </c>
       <c r="L4">
-        <v>7.203726922288428</v>
+        <v>12.07415306756729</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.65821597035557</v>
+        <v>24.56999178885812</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.81082054826217</v>
+        <v>19.32647562647852</v>
       </c>
       <c r="C5">
-        <v>6.660307996294192</v>
+        <v>6.163331557302097</v>
       </c>
       <c r="D5">
-        <v>2.270015770290381</v>
+        <v>4.735060107510242</v>
       </c>
       <c r="E5">
-        <v>5.995972492415615</v>
+        <v>10.68530240393107</v>
       </c>
       <c r="F5">
-        <v>35.14975839614227</v>
+        <v>50.38333415167596</v>
       </c>
       <c r="I5">
-        <v>24.57672501981596</v>
+        <v>36.33242004420154</v>
       </c>
       <c r="J5">
-        <v>5.861782111934309</v>
+        <v>9.996682704421925</v>
       </c>
       <c r="K5">
-        <v>12.65413765510246</v>
+        <v>17.21815753813523</v>
       </c>
       <c r="L5">
-        <v>7.178242055559419</v>
+        <v>12.07778988433812</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.70735691387285</v>
+        <v>24.5852302739086</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77502613841296</v>
+        <v>19.32208999918373</v>
       </c>
       <c r="C6">
-        <v>6.638990172783411</v>
+        <v>6.158049492849307</v>
       </c>
       <c r="D6">
-        <v>2.266597061185163</v>
+        <v>4.735072792810984</v>
       </c>
       <c r="E6">
-        <v>5.995407110775571</v>
+        <v>10.68607168876062</v>
       </c>
       <c r="F6">
-        <v>35.13157195922052</v>
+        <v>50.38542447128061</v>
       </c>
       <c r="I6">
-        <v>24.57402784037686</v>
+        <v>36.33534493986817</v>
       </c>
       <c r="J6">
-        <v>5.863435809622271</v>
+        <v>9.997455384599499</v>
       </c>
       <c r="K6">
-        <v>12.62680610340184</v>
+        <v>17.21535130294288</v>
       </c>
       <c r="L6">
-        <v>7.174054550614331</v>
+        <v>12.07841970682214</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.71557799694087</v>
+        <v>24.58779001148946</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.02249451615241</v>
+        <v>19.35291968374561</v>
       </c>
       <c r="C7">
-        <v>6.785999273420362</v>
+        <v>6.194796220061566</v>
       </c>
       <c r="D7">
-        <v>2.290280984706939</v>
+        <v>4.735031894662402</v>
       </c>
       <c r="E7">
-        <v>5.999505779474261</v>
+        <v>10.68082472413879</v>
       </c>
       <c r="F7">
-        <v>35.25966008424142</v>
+        <v>50.37172816692282</v>
       </c>
       <c r="I7">
-        <v>24.5939961382645</v>
+        <v>36.31553792168661</v>
       </c>
       <c r="J7">
-        <v>5.852062161548684</v>
+        <v>9.992150079713007</v>
       </c>
       <c r="K7">
-        <v>12.81600516906033</v>
+        <v>17.23516717981155</v>
       </c>
       <c r="L7">
-        <v>7.203380264740081</v>
+        <v>12.07420037678045</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.65887459352946</v>
+        <v>24.57019533006599</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.08816784341816</v>
+        <v>19.49841510008703</v>
       </c>
       <c r="C8">
-        <v>7.439823229275451</v>
+        <v>6.358671809577586</v>
       </c>
       <c r="D8">
-        <v>2.39346290469822</v>
+        <v>4.736013288292538</v>
       </c>
       <c r="E8">
-        <v>6.021943036489934</v>
+        <v>10.65996190368337</v>
       </c>
       <c r="F8">
-        <v>35.87127525277888</v>
+        <v>50.3314105432867</v>
       </c>
       <c r="I8">
-        <v>24.71380742225095</v>
+        <v>36.24039140489439</v>
       </c>
       <c r="J8">
-        <v>5.804462481063168</v>
+        <v>9.970169715456839</v>
       </c>
       <c r="K8">
-        <v>13.63660761612332</v>
+        <v>17.33086623704547</v>
       </c>
       <c r="L8">
-        <v>7.339150146000531</v>
+        <v>12.05934766689048</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.41758067443367</v>
+        <v>24.49682197577677</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.06801860759402</v>
+        <v>19.81598962260647</v>
       </c>
       <c r="C9">
-        <v>8.699748420338938</v>
+        <v>6.682997188148571</v>
       </c>
       <c r="D9">
-        <v>2.589346864390051</v>
+        <v>4.742065288817394</v>
       </c>
       <c r="E9">
-        <v>6.081932129675021</v>
+        <v>10.62725225823497</v>
       </c>
       <c r="F9">
-        <v>37.24155240046096</v>
+        <v>50.32469321505887</v>
       </c>
       <c r="I9">
-        <v>25.07072091925214</v>
+        <v>36.13716800479834</v>
       </c>
       <c r="J9">
-        <v>5.720392265819805</v>
+        <v>9.932180642495442</v>
       </c>
       <c r="K9">
-        <v>15.18166822781933</v>
+        <v>17.54719325208671</v>
       </c>
       <c r="L9">
-        <v>7.627550480710739</v>
+        <v>12.0437242430882</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.97679590954129</v>
+        <v>24.36822724363858</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.44606294542381</v>
+        <v>20.06731244532062</v>
       </c>
       <c r="C10">
-        <v>9.546571750803567</v>
+        <v>6.920312362171356</v>
       </c>
       <c r="D10">
-        <v>2.728107449839619</v>
+        <v>4.748982927110503</v>
       </c>
       <c r="E10">
-        <v>6.136080339989753</v>
+        <v>10.60819232959844</v>
       </c>
       <c r="F10">
-        <v>38.35591884489963</v>
+        <v>50.36383344612489</v>
       </c>
       <c r="I10">
-        <v>25.41473973692766</v>
+        <v>36.08830462229676</v>
       </c>
       <c r="J10">
-        <v>5.664250284342498</v>
+        <v>9.90736175655587</v>
       </c>
       <c r="K10">
-        <v>16.26934161291379</v>
+        <v>17.72259546934974</v>
       </c>
       <c r="L10">
-        <v>7.852308610109569</v>
+        <v>12.04044265439569</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.67316130276931</v>
+        <v>24.2830218786368</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.05511328603112</v>
+        <v>20.18517289337994</v>
       </c>
       <c r="C11">
-        <v>9.915476209989041</v>
+        <v>7.027509599923006</v>
       </c>
       <c r="D11">
-        <v>2.789917033847932</v>
+        <v>4.752656299845666</v>
       </c>
       <c r="E11">
-        <v>6.162972412015807</v>
+        <v>10.60059485629832</v>
       </c>
       <c r="F11">
-        <v>38.88696179719158</v>
+        <v>50.39118621767989</v>
       </c>
       <c r="I11">
-        <v>25.59062307760406</v>
+        <v>36.07194284718393</v>
       </c>
       <c r="J11">
-        <v>5.639926768995025</v>
+        <v>9.896736805067905</v>
       </c>
       <c r="K11">
-        <v>16.75268261608219</v>
+        <v>17.80572971091572</v>
       </c>
       <c r="L11">
-        <v>7.957228226164896</v>
+        <v>12.04072051087905</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.53957512067813</v>
+        <v>24.24626333430226</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.28312206460113</v>
+        <v>20.23027788076852</v>
       </c>
       <c r="C12">
-        <v>10.05289492786587</v>
+        <v>7.067950097207169</v>
       </c>
       <c r="D12">
-        <v>2.813121424769129</v>
+        <v>4.75412208700344</v>
       </c>
       <c r="E12">
-        <v>6.17348657858902</v>
+        <v>10.59787165453562</v>
       </c>
       <c r="F12">
-        <v>39.09158263920893</v>
+        <v>50.40291318713766</v>
       </c>
       <c r="I12">
-        <v>25.66014877331326</v>
+        <v>36.06659100947497</v>
       </c>
       <c r="J12">
-        <v>5.630890769648713</v>
+        <v>9.892808656703867</v>
       </c>
       <c r="K12">
-        <v>16.93400482349622</v>
+        <v>17.83766983722227</v>
       </c>
       <c r="L12">
-        <v>7.997334397833239</v>
+        <v>12.04107938619877</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.48966057319789</v>
+        <v>24.23263099853324</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.23413371494835</v>
+        <v>20.22054319497171</v>
       </c>
       <c r="C13">
-        <v>10.02339946590016</v>
+        <v>7.059247976453714</v>
       </c>
       <c r="D13">
-        <v>2.808133079140297</v>
+        <v>4.753803094011109</v>
       </c>
       <c r="E13">
-        <v>6.171207360573818</v>
+        <v>10.59845131265801</v>
       </c>
       <c r="F13">
-        <v>39.04735600657093</v>
+        <v>50.40032675650187</v>
       </c>
       <c r="I13">
-        <v>25.64504300930487</v>
+        <v>36.06770608170396</v>
       </c>
       <c r="J13">
-        <v>5.632829059342895</v>
+        <v>9.893650421645125</v>
       </c>
       <c r="K13">
-        <v>16.89503055001093</v>
+        <v>17.83077089980884</v>
       </c>
       <c r="L13">
-        <v>7.988680248672566</v>
+        <v>12.04099083089675</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.50038034345101</v>
+        <v>24.23555419521969</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.07392456595121</v>
+        <v>20.18887441082524</v>
       </c>
       <c r="C14">
-        <v>9.926826953915038</v>
+        <v>7.030839967208931</v>
       </c>
       <c r="D14">
-        <v>2.791830174817293</v>
+        <v>4.75277539828642</v>
       </c>
       <c r="E14">
-        <v>6.16383075653209</v>
+        <v>10.60036773742681</v>
       </c>
       <c r="F14">
-        <v>38.90372503323087</v>
+        <v>50.39212358990678</v>
       </c>
       <c r="I14">
-        <v>25.59628364334016</v>
+        <v>36.07148563147753</v>
       </c>
       <c r="J14">
-        <v>5.639179868660686</v>
+        <v>9.896411726326949</v>
       </c>
       <c r="K14">
-        <v>16.76763461092272</v>
+        <v>17.8083483726083</v>
       </c>
       <c r="L14">
-        <v>7.960520308390367</v>
+        <v>12.0407449579687</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.53545503582885</v>
+        <v>24.24513603833628</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.97544863062582</v>
+        <v>20.16953704035953</v>
       </c>
       <c r="C15">
-        <v>9.867379080317273</v>
+        <v>7.013418091400752</v>
       </c>
       <c r="D15">
-        <v>2.781817599882317</v>
+        <v>4.752155612239423</v>
       </c>
       <c r="E15">
-        <v>6.159355619673345</v>
+        <v>10.60156161683077</v>
       </c>
       <c r="F15">
-        <v>38.81620805581921</v>
+        <v>50.38727707546752</v>
       </c>
       <c r="I15">
-        <v>25.56680177493611</v>
+        <v>36.07391063843625</v>
       </c>
       <c r="J15">
-        <v>5.643092686278865</v>
+        <v>9.898115503644558</v>
       </c>
       <c r="K15">
-        <v>16.68937700486894</v>
+        <v>17.79467304371494</v>
       </c>
       <c r="L15">
-        <v>7.943320173443835</v>
+        <v>12.04062735707663</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.557027402858</v>
+        <v>24.25104259700333</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.40589533963498</v>
+        <v>20.05967816775937</v>
       </c>
       <c r="C16">
-        <v>9.522140374326204</v>
+        <v>6.913287715875863</v>
       </c>
       <c r="D16">
-        <v>2.72404046741928</v>
+        <v>4.748753377754144</v>
       </c>
       <c r="E16">
-        <v>6.134368839139519</v>
+        <v>10.60871039126755</v>
       </c>
       <c r="F16">
-        <v>38.32170400837886</v>
+        <v>50.36223769211857</v>
       </c>
       <c r="I16">
-        <v>25.40364689999139</v>
+        <v>36.08949199240292</v>
       </c>
       <c r="J16">
-        <v>5.665864341630098</v>
+        <v>9.908069477043371</v>
       </c>
       <c r="K16">
-        <v>16.2375178634986</v>
+        <v>17.71722788146855</v>
       </c>
       <c r="L16">
-        <v>7.845504865776121</v>
+        <v>12.0404600461472</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.68198432989117</v>
+        <v>24.28546437163708</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.0518727267099</v>
+        <v>19.99316400978024</v>
       </c>
       <c r="C17">
-        <v>9.306215206612054</v>
+        <v>6.851634830275158</v>
       </c>
       <c r="D17">
-        <v>2.688249719089782</v>
+        <v>4.746800402513376</v>
       </c>
       <c r="E17">
-        <v>6.119623062841717</v>
+        <v>10.61337039939147</v>
       </c>
       <c r="F17">
-        <v>38.02455717903916</v>
+        <v>50.34931977350779</v>
       </c>
       <c r="I17">
-        <v>25.30861699245016</v>
+        <v>36.10055356297321</v>
       </c>
       <c r="J17">
-        <v>5.68014533647728</v>
+        <v>9.914346043261665</v>
       </c>
       <c r="K17">
-        <v>15.95733230043751</v>
+        <v>17.67055879427295</v>
       </c>
       <c r="L17">
-        <v>7.786176445570319</v>
+        <v>12.04081026324037</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.75981601529084</v>
+        <v>24.30709334239473</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.84657177377197</v>
+        <v>19.95524141836948</v>
       </c>
       <c r="C18">
-        <v>9.180480167200916</v>
+        <v>6.816104780693736</v>
       </c>
       <c r="D18">
-        <v>2.667540783921446</v>
+        <v>4.745726718975305</v>
       </c>
       <c r="E18">
-        <v>6.111354025790662</v>
+        <v>10.61615173757435</v>
       </c>
       <c r="F18">
-        <v>37.85591185527677</v>
+        <v>50.34278869305945</v>
       </c>
       <c r="I18">
-        <v>25.2557749281456</v>
+        <v>36.10746805119965</v>
       </c>
       <c r="J18">
-        <v>5.688473814872321</v>
+        <v>9.91801880013902</v>
       </c>
       <c r="K18">
-        <v>15.79510155538082</v>
+        <v>17.64403197321814</v>
       </c>
       <c r="L18">
-        <v>7.752304651642834</v>
+        <v>12.04117842632747</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.80500857348891</v>
+        <v>24.31972220385936</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.77677484054989</v>
+        <v>19.94245997449503</v>
       </c>
       <c r="C19">
-        <v>9.13764182896891</v>
+        <v>6.804064446268783</v>
       </c>
       <c r="D19">
-        <v>2.660508397124546</v>
+        <v>4.745371738171531</v>
       </c>
       <c r="E19">
-        <v>6.10859057075823</v>
+        <v>10.61711081696006</v>
       </c>
       <c r="F19">
-        <v>37.79919890128628</v>
+        <v>50.34073188226687</v>
       </c>
       <c r="I19">
-        <v>25.23819147333261</v>
+        <v>36.10990399602328</v>
       </c>
       <c r="J19">
-        <v>5.691313350624659</v>
+        <v>9.919273102879457</v>
       </c>
       <c r="K19">
-        <v>15.73999063855971</v>
+        <v>17.63510536935961</v>
       </c>
       <c r="L19">
-        <v>7.740879902350381</v>
+        <v>12.04133174334085</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.82038262455145</v>
+        <v>24.32403050224868</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.0897330943465</v>
+        <v>20.00021017119134</v>
       </c>
       <c r="C20">
-        <v>9.329359771615012</v>
+        <v>6.858205344400788</v>
       </c>
       <c r="D20">
-        <v>2.692072541305488</v>
+        <v>4.74700317175788</v>
       </c>
       <c r="E20">
-        <v>6.121170758278542</v>
+        <v>10.6128638814606</v>
       </c>
       <c r="F20">
-        <v>38.05595407518555</v>
+        <v>50.35060189353506</v>
       </c>
       <c r="I20">
-        <v>25.3185441105712</v>
+        <v>36.0993188889091</v>
       </c>
       <c r="J20">
-        <v>5.678613257978686</v>
+        <v>9.913671411600694</v>
       </c>
       <c r="K20">
-        <v>15.98727036866279</v>
+        <v>17.67549424776279</v>
       </c>
       <c r="L20">
-        <v>7.792466014930269</v>
+        <v>12.04075573302323</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.75148650370841</v>
+        <v>24.30477140157489</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.1210534676616</v>
+        <v>20.19816371798312</v>
       </c>
       <c r="C21">
-        <v>9.955253866295935</v>
+        <v>7.039188570256455</v>
       </c>
       <c r="D21">
-        <v>2.796624289795316</v>
+        <v>4.753075236193998</v>
       </c>
       <c r="E21">
-        <v>6.165988420757245</v>
+        <v>10.59980066704343</v>
       </c>
       <c r="F21">
-        <v>38.94581671213478</v>
+        <v>50.39449593822697</v>
       </c>
       <c r="I21">
-        <v>25.61052504462517</v>
+        <v>36.07035257770094</v>
       </c>
       <c r="J21">
-        <v>5.63730973801844</v>
+        <v>9.895598081044865</v>
       </c>
       <c r="K21">
-        <v>16.80510062545934</v>
+        <v>17.81492213240165</v>
       </c>
       <c r="L21">
-        <v>7.968781442464006</v>
+        <v>12.0408103007917</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.52513434731543</v>
+        <v>24.24231382489119</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.77977089076724</v>
+        <v>20.33028306839995</v>
       </c>
       <c r="C22">
-        <v>10.35107411197304</v>
+        <v>7.156562603624883</v>
       </c>
       <c r="D22">
-        <v>2.863776264977387</v>
+        <v>4.757478978574115</v>
       </c>
       <c r="E22">
-        <v>6.197209979187505</v>
+        <v>10.59215930631887</v>
       </c>
       <c r="F22">
-        <v>39.54798247917461</v>
+        <v>50.43116074818019</v>
       </c>
       <c r="I22">
-        <v>25.81845134273064</v>
+        <v>36.05634098336435</v>
       </c>
       <c r="J22">
-        <v>5.611334369247006</v>
+        <v>9.884341366441765</v>
       </c>
       <c r="K22">
-        <v>17.32963031637822</v>
+        <v>17.90871106935071</v>
       </c>
       <c r="L22">
-        <v>8.086199027680491</v>
+        <v>12.04232395488627</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.38112705108007</v>
+        <v>24.20316871881346</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.42961441455734</v>
+        <v>20.25952877586883</v>
       </c>
       <c r="C23">
-        <v>10.14100411343668</v>
+        <v>7.094014835495543</v>
       </c>
       <c r="D23">
-        <v>2.828047270573652</v>
+        <v>4.755089111370555</v>
       </c>
       <c r="E23">
-        <v>6.180367802278527</v>
+        <v>10.59615580867614</v>
       </c>
       <c r="F23">
-        <v>39.22468938275724</v>
+        <v>50.41086363071562</v>
       </c>
       <c r="I23">
-        <v>25.70586703383058</v>
+        <v>36.06336901854228</v>
       </c>
       <c r="J23">
-        <v>5.625104666138921</v>
+        <v>9.89029860490766</v>
       </c>
       <c r="K23">
-        <v>17.05060518462515</v>
+        <v>17.85841769647781</v>
       </c>
       <c r="L23">
-        <v>8.023333657656107</v>
+        <v>12.04138119667434</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.45761969546159</v>
+        <v>24.22390814899569</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.07262192602447</v>
+        <v>19.99702361068582</v>
       </c>
       <c r="C24">
-        <v>9.318901092574091</v>
+        <v>6.855235076325024</v>
       </c>
       <c r="D24">
-        <v>2.690344654645588</v>
+        <v>4.746911346765055</v>
       </c>
       <c r="E24">
-        <v>6.120470396152991</v>
+        <v>10.61309255973048</v>
       </c>
       <c r="F24">
-        <v>38.04175272655641</v>
+        <v>50.35001945691521</v>
       </c>
       <c r="I24">
-        <v>25.3140504892523</v>
+        <v>36.09987535606176</v>
       </c>
       <c r="J24">
-        <v>5.679305542670972</v>
+        <v>9.913976212330759</v>
       </c>
       <c r="K24">
-        <v>15.97373893977828</v>
+        <v>17.67326198107827</v>
       </c>
       <c r="L24">
-        <v>7.789621761971441</v>
+        <v>12.04077986643751</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.75525088781688</v>
+        <v>24.30582054637197</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.54532204085557</v>
+        <v>19.72679021536637</v>
       </c>
       <c r="C25">
-        <v>8.372997934603587</v>
+        <v>6.595233653642055</v>
       </c>
       <c r="D25">
-        <v>2.537183564659419</v>
+        <v>4.73999069228355</v>
       </c>
       <c r="E25">
-        <v>6.063957850683419</v>
+        <v>10.63522587763115</v>
       </c>
       <c r="F25">
-        <v>36.85219147268542</v>
+        <v>50.31876473596024</v>
       </c>
       <c r="I25">
-        <v>24.96034302283862</v>
+        <v>36.16035954471083</v>
       </c>
       <c r="J25">
-        <v>5.74214602614183</v>
+        <v>9.941912884130458</v>
       </c>
       <c r="K25">
-        <v>14.77153764787807</v>
+        <v>17.48570213262312</v>
       </c>
       <c r="L25">
-        <v>7.547224844222332</v>
+        <v>12.04650844682682</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.09253356034213</v>
+        <v>24.40138365050888</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_184/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.54007855928528</v>
+        <v>16.36992046743798</v>
       </c>
       <c r="C2">
-        <v>6.403381025117031</v>
+        <v>7.623282450162702</v>
       </c>
       <c r="D2">
-        <v>4.736560110516001</v>
+        <v>2.421035319945445</v>
       </c>
       <c r="E2">
-        <v>10.65486524604357</v>
+        <v>6.029092249904885</v>
       </c>
       <c r="F2">
-        <v>50.32538137073519</v>
+        <v>36.04841993570333</v>
       </c>
       <c r="I2">
-        <v>36.22301452445411</v>
+        <v>24.75424858557965</v>
       </c>
       <c r="J2">
-        <v>9.96456123039037</v>
+        <v>5.792194099415918</v>
       </c>
       <c r="K2">
-        <v>17.35877020247769</v>
+        <v>13.85499217857285</v>
       </c>
       <c r="L2">
-        <v>12.05623818284223</v>
+        <v>7.377459931689515</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.47797805936221</v>
+        <v>16.35438223093837</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42173598948629</v>
+        <v>15.54472218672551</v>
       </c>
       <c r="C3">
-        <v>6.274015419378872</v>
+        <v>7.09358771917563</v>
       </c>
       <c r="D3">
-        <v>4.735288515693775</v>
+        <v>2.340614712136024</v>
       </c>
       <c r="E3">
-        <v>10.67026975130645</v>
+        <v>6.009562173379703</v>
       </c>
       <c r="F3">
-        <v>50.34835583333942</v>
+        <v>35.5475312126657</v>
       </c>
       <c r="I3">
-        <v>36.27675806777527</v>
+        <v>24.64601305158075</v>
       </c>
       <c r="J3">
-        <v>9.98121583488812</v>
+        <v>5.828479530188727</v>
       </c>
       <c r="K3">
-        <v>17.28004288096013</v>
+        <v>13.21701232409075</v>
       </c>
       <c r="L3">
-        <v>12.06628163864897</v>
+        <v>7.268051211028399</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.53379105072677</v>
+        <v>16.54011947311542</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.35328567392238</v>
+        <v>15.02537666591212</v>
       </c>
       <c r="C4">
-        <v>6.195227297311263</v>
+        <v>6.787706396088505</v>
       </c>
       <c r="D4">
-        <v>4.735032054012245</v>
+        <v>2.290557476982778</v>
       </c>
       <c r="E4">
-        <v>10.68076458328736</v>
+        <v>5.999556102105606</v>
       </c>
       <c r="F4">
-        <v>50.37157890864855</v>
+        <v>35.26118402275522</v>
       </c>
       <c r="I4">
-        <v>36.31531285776769</v>
+        <v>24.59424675152996</v>
       </c>
       <c r="J4">
-        <v>9.992088785473468</v>
+        <v>5.851930495072838</v>
       </c>
       <c r="K4">
-        <v>17.23540360998659</v>
+        <v>12.81821193100464</v>
       </c>
       <c r="L4">
-        <v>12.07415306756729</v>
+        <v>7.203726922288451</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.56999178885812</v>
+        <v>16.65821597035564</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.32647562647852</v>
+        <v>14.81082054826222</v>
       </c>
       <c r="C5">
-        <v>6.163331557302097</v>
+        <v>6.660307996294168</v>
       </c>
       <c r="D5">
-        <v>4.735060107510242</v>
+        <v>2.270015770290416</v>
       </c>
       <c r="E5">
-        <v>10.68530240393107</v>
+        <v>5.995972492415682</v>
       </c>
       <c r="F5">
-        <v>50.38333415167596</v>
+        <v>35.14975839614227</v>
       </c>
       <c r="I5">
-        <v>36.33242004420154</v>
+        <v>24.57672501981594</v>
       </c>
       <c r="J5">
-        <v>9.996682704421925</v>
+        <v>5.861782111934282</v>
       </c>
       <c r="K5">
-        <v>17.21815753813523</v>
+        <v>12.65413765510247</v>
       </c>
       <c r="L5">
-        <v>12.07778988433812</v>
+        <v>7.178242055559451</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.5852302739086</v>
+        <v>16.70735691387283</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.32208999918373</v>
+        <v>14.77502613841305</v>
       </c>
       <c r="C6">
-        <v>6.158049492849307</v>
+        <v>6.638990172783387</v>
       </c>
       <c r="D6">
-        <v>4.735072792810984</v>
+        <v>2.266597061185162</v>
       </c>
       <c r="E6">
-        <v>10.68607168876062</v>
+        <v>5.995407110775574</v>
       </c>
       <c r="F6">
-        <v>50.38542447128061</v>
+        <v>35.13157195922068</v>
       </c>
       <c r="I6">
-        <v>36.33534493986817</v>
+        <v>24.57402784037698</v>
       </c>
       <c r="J6">
-        <v>9.997455384599499</v>
+        <v>5.863435809622337</v>
       </c>
       <c r="K6">
-        <v>17.21535130294288</v>
+        <v>12.62680610340186</v>
       </c>
       <c r="L6">
-        <v>12.07841970682214</v>
+        <v>7.174054550614323</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.58779001148946</v>
+        <v>16.71557799694091</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.35291968374561</v>
+        <v>15.02249451615235</v>
       </c>
       <c r="C7">
-        <v>6.194796220061566</v>
+        <v>6.785999273420368</v>
       </c>
       <c r="D7">
-        <v>4.735031894662402</v>
+        <v>2.290280984706927</v>
       </c>
       <c r="E7">
-        <v>10.68082472413879</v>
+        <v>5.999505779474207</v>
       </c>
       <c r="F7">
-        <v>50.37172816692282</v>
+        <v>35.2596600842411</v>
       </c>
       <c r="I7">
-        <v>36.31553792168661</v>
+        <v>24.59399613826422</v>
       </c>
       <c r="J7">
-        <v>9.992150079713007</v>
+        <v>5.852062161548719</v>
       </c>
       <c r="K7">
-        <v>17.23516717981155</v>
+        <v>12.81600516906028</v>
       </c>
       <c r="L7">
-        <v>12.07420037678045</v>
+        <v>7.203380264740089</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.57019533006599</v>
+        <v>16.65887459352924</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.49841510008703</v>
+        <v>16.08816784341815</v>
       </c>
       <c r="C8">
-        <v>6.358671809577586</v>
+        <v>7.439823229275467</v>
       </c>
       <c r="D8">
-        <v>4.736013288292538</v>
+        <v>2.393462904698189</v>
       </c>
       <c r="E8">
-        <v>10.65996190368337</v>
+        <v>6.021943036489935</v>
       </c>
       <c r="F8">
-        <v>50.3314105432867</v>
+        <v>35.87127525277882</v>
       </c>
       <c r="I8">
-        <v>36.24039140489439</v>
+        <v>24.7138074222509</v>
       </c>
       <c r="J8">
-        <v>9.970169715456839</v>
+        <v>5.804462481063198</v>
       </c>
       <c r="K8">
-        <v>17.33086623704547</v>
+        <v>13.6366076161233</v>
       </c>
       <c r="L8">
-        <v>12.05934766689048</v>
+        <v>7.339150146000538</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.49682197577677</v>
+        <v>16.41758067443364</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.81598962260647</v>
+        <v>18.068018607594</v>
       </c>
       <c r="C9">
-        <v>6.682997188148571</v>
+        <v>8.699748420339114</v>
       </c>
       <c r="D9">
-        <v>4.742065288817394</v>
+        <v>2.589346864390132</v>
       </c>
       <c r="E9">
-        <v>10.62725225823497</v>
+        <v>6.081932129675021</v>
       </c>
       <c r="F9">
-        <v>50.32469321505887</v>
+        <v>37.24155240046066</v>
       </c>
       <c r="I9">
-        <v>36.13716800479834</v>
+        <v>25.07072091925193</v>
       </c>
       <c r="J9">
-        <v>9.932180642495442</v>
+        <v>5.720392265819743</v>
       </c>
       <c r="K9">
-        <v>17.54719325208671</v>
+        <v>15.18166822781925</v>
       </c>
       <c r="L9">
-        <v>12.0437242430882</v>
+        <v>7.627550480710616</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.36822724363858</v>
+        <v>15.97679590954116</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.06731244532062</v>
+        <v>19.44606294542384</v>
       </c>
       <c r="C10">
-        <v>6.920312362171356</v>
+        <v>9.546571750803666</v>
       </c>
       <c r="D10">
-        <v>4.748982927110503</v>
+        <v>2.728107449839805</v>
       </c>
       <c r="E10">
-        <v>10.60819232959844</v>
+        <v>6.136080339989747</v>
       </c>
       <c r="F10">
-        <v>50.36383344612489</v>
+        <v>38.35591884489949</v>
       </c>
       <c r="I10">
-        <v>36.08830462229676</v>
+        <v>25.41473973692749</v>
       </c>
       <c r="J10">
-        <v>9.90736175655587</v>
+        <v>5.664250284342352</v>
       </c>
       <c r="K10">
-        <v>17.72259546934974</v>
+        <v>16.26934161291377</v>
       </c>
       <c r="L10">
-        <v>12.04044265439569</v>
+        <v>7.852308610109506</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.2830218786368</v>
+        <v>15.67316130276915</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.18517289337994</v>
+        <v>20.0551132860311</v>
       </c>
       <c r="C11">
-        <v>7.027509599923006</v>
+        <v>9.915476209989134</v>
       </c>
       <c r="D11">
-        <v>4.752656299845666</v>
+        <v>2.789917033847925</v>
       </c>
       <c r="E11">
-        <v>10.60059485629832</v>
+        <v>6.16297241201582</v>
       </c>
       <c r="F11">
-        <v>50.39118621767989</v>
+        <v>38.88696179719135</v>
       </c>
       <c r="I11">
-        <v>36.07194284718393</v>
+        <v>25.59062307760386</v>
       </c>
       <c r="J11">
-        <v>9.896736805067905</v>
+        <v>5.639926768995034</v>
       </c>
       <c r="K11">
-        <v>17.80572971091572</v>
+        <v>16.75268261608218</v>
       </c>
       <c r="L11">
-        <v>12.04072051087905</v>
+        <v>7.957228226164892</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.24626333430226</v>
+        <v>15.539575120678</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.23027788076852</v>
+        <v>20.28312206460116</v>
       </c>
       <c r="C12">
-        <v>7.067950097207169</v>
+        <v>10.05289492786578</v>
       </c>
       <c r="D12">
-        <v>4.75412208700344</v>
+        <v>2.813121424769029</v>
       </c>
       <c r="E12">
-        <v>10.59787165453562</v>
+        <v>6.173486578589029</v>
       </c>
       <c r="F12">
-        <v>50.40291318713766</v>
+        <v>39.09158263920894</v>
       </c>
       <c r="I12">
-        <v>36.06659100947497</v>
+        <v>25.66014877331333</v>
       </c>
       <c r="J12">
-        <v>9.892808656703867</v>
+        <v>5.630890769648837</v>
       </c>
       <c r="K12">
-        <v>17.83766983722227</v>
+        <v>16.93400482349622</v>
       </c>
       <c r="L12">
-        <v>12.04107938619877</v>
+        <v>7.997334397833263</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.23263099853324</v>
+        <v>15.48966057319795</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.22054319497171</v>
+        <v>20.23413371494835</v>
       </c>
       <c r="C13">
-        <v>7.059247976453714</v>
+        <v>10.02339946590019</v>
       </c>
       <c r="D13">
-        <v>4.753803094011109</v>
+        <v>2.808133079140168</v>
       </c>
       <c r="E13">
-        <v>10.59845131265801</v>
+        <v>6.171207360573816</v>
       </c>
       <c r="F13">
-        <v>50.40032675650187</v>
+        <v>39.04735600657073</v>
       </c>
       <c r="I13">
-        <v>36.06770608170396</v>
+        <v>25.64504300930466</v>
       </c>
       <c r="J13">
-        <v>9.893650421645125</v>
+        <v>5.632829059342962</v>
       </c>
       <c r="K13">
-        <v>17.83077089980884</v>
+        <v>16.89503055001093</v>
       </c>
       <c r="L13">
-        <v>12.04099083089675</v>
+        <v>7.988680248672579</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.23555419521969</v>
+        <v>15.50038034345089</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.18887441082524</v>
+        <v>20.07392456595123</v>
       </c>
       <c r="C14">
-        <v>7.030839967208931</v>
+        <v>9.926826953915114</v>
       </c>
       <c r="D14">
-        <v>4.75277539828642</v>
+        <v>2.791830174817264</v>
       </c>
       <c r="E14">
-        <v>10.60036773742681</v>
+        <v>6.163830756532096</v>
       </c>
       <c r="F14">
-        <v>50.39212358990678</v>
+        <v>38.90372503323088</v>
       </c>
       <c r="I14">
-        <v>36.07148563147753</v>
+        <v>25.59628364334017</v>
       </c>
       <c r="J14">
-        <v>9.896411726326949</v>
+        <v>5.639179868660725</v>
       </c>
       <c r="K14">
-        <v>17.8083483726083</v>
+        <v>16.76763461092276</v>
       </c>
       <c r="L14">
-        <v>12.0407449579687</v>
+        <v>7.960520308390392</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.24513603833628</v>
+        <v>15.53545503582883</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.16953704035953</v>
+        <v>19.97544863062584</v>
       </c>
       <c r="C15">
-        <v>7.013418091400752</v>
+        <v>9.86737908031729</v>
       </c>
       <c r="D15">
-        <v>4.752155612239423</v>
+        <v>2.781817599882224</v>
       </c>
       <c r="E15">
-        <v>10.60156161683077</v>
+        <v>6.1593556196734</v>
       </c>
       <c r="F15">
-        <v>50.38727707546752</v>
+        <v>38.81620805581917</v>
       </c>
       <c r="I15">
-        <v>36.07391063843625</v>
+        <v>25.56680177493612</v>
       </c>
       <c r="J15">
-        <v>9.898115503644558</v>
+        <v>5.643092686278931</v>
       </c>
       <c r="K15">
-        <v>17.79467304371494</v>
+        <v>16.68937700486894</v>
       </c>
       <c r="L15">
-        <v>12.04062735707663</v>
+        <v>7.94332017344382</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.25104259700333</v>
+        <v>15.55702740285802</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.05967816775937</v>
+        <v>19.40589533963498</v>
       </c>
       <c r="C16">
-        <v>6.913287715875863</v>
+        <v>9.52214037432616</v>
       </c>
       <c r="D16">
-        <v>4.748753377754144</v>
+        <v>2.724040467419302</v>
       </c>
       <c r="E16">
-        <v>10.60871039126755</v>
+        <v>6.134368839139364</v>
       </c>
       <c r="F16">
-        <v>50.36223769211857</v>
+        <v>38.32170400837887</v>
       </c>
       <c r="I16">
-        <v>36.08949199240292</v>
+        <v>25.40364689999135</v>
       </c>
       <c r="J16">
-        <v>9.908069477043371</v>
+        <v>5.665864341630035</v>
       </c>
       <c r="K16">
-        <v>17.71722788146855</v>
+        <v>16.23751786349861</v>
       </c>
       <c r="L16">
-        <v>12.0404600461472</v>
+        <v>7.845504865776127</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.28546437163708</v>
+        <v>15.68198432989116</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.99316400978024</v>
+        <v>19.05187272670985</v>
       </c>
       <c r="C17">
-        <v>6.851634830275158</v>
+        <v>9.306215206612192</v>
       </c>
       <c r="D17">
-        <v>4.746800402513376</v>
+        <v>2.688249719089905</v>
       </c>
       <c r="E17">
-        <v>10.61337039939147</v>
+        <v>6.119623062841717</v>
       </c>
       <c r="F17">
-        <v>50.34931977350779</v>
+        <v>38.02455717903903</v>
       </c>
       <c r="I17">
-        <v>36.10055356297321</v>
+        <v>25.30861699245003</v>
       </c>
       <c r="J17">
-        <v>9.914346043261665</v>
+        <v>5.680145336477191</v>
       </c>
       <c r="K17">
-        <v>17.67055879427295</v>
+        <v>15.95733230043748</v>
       </c>
       <c r="L17">
-        <v>12.04081026324037</v>
+        <v>7.786176445570236</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.30709334239473</v>
+        <v>15.75981601529079</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.95524141836948</v>
+        <v>18.84657177377196</v>
       </c>
       <c r="C18">
-        <v>6.816104780693736</v>
+        <v>9.180480167200876</v>
       </c>
       <c r="D18">
-        <v>4.745726718975305</v>
+        <v>2.667540783921256</v>
       </c>
       <c r="E18">
-        <v>10.61615173757435</v>
+        <v>6.111354025790564</v>
       </c>
       <c r="F18">
-        <v>50.34278869305945</v>
+        <v>37.85591185527662</v>
       </c>
       <c r="I18">
-        <v>36.10746805119965</v>
+        <v>25.25577492814548</v>
       </c>
       <c r="J18">
-        <v>9.91801880013902</v>
+        <v>5.688473814872292</v>
       </c>
       <c r="K18">
-        <v>17.64403197321814</v>
+        <v>15.79510155538082</v>
       </c>
       <c r="L18">
-        <v>12.04117842632747</v>
+        <v>7.752304651642822</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.31972220385936</v>
+        <v>15.80500857348878</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.94245997449503</v>
+        <v>18.77677484054989</v>
       </c>
       <c r="C19">
-        <v>6.804064446268783</v>
+        <v>9.137641828968837</v>
       </c>
       <c r="D19">
-        <v>4.745371738171531</v>
+        <v>2.660508397124494</v>
       </c>
       <c r="E19">
-        <v>10.61711081696006</v>
+        <v>6.108590570758079</v>
       </c>
       <c r="F19">
-        <v>50.34073188226687</v>
+        <v>37.79919890128614</v>
       </c>
       <c r="I19">
-        <v>36.10990399602328</v>
+        <v>25.23819147333246</v>
       </c>
       <c r="J19">
-        <v>9.919273102879457</v>
+        <v>5.691313350624566</v>
       </c>
       <c r="K19">
-        <v>17.63510536935961</v>
+        <v>15.73999063855968</v>
       </c>
       <c r="L19">
-        <v>12.04133174334085</v>
+        <v>7.740879902350303</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.32403050224868</v>
+        <v>15.82038262455132</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.00021017119134</v>
+        <v>19.08973309434652</v>
       </c>
       <c r="C20">
-        <v>6.858205344400788</v>
+        <v>9.329359771615071</v>
       </c>
       <c r="D20">
-        <v>4.74700317175788</v>
+        <v>2.692072541305454</v>
       </c>
       <c r="E20">
-        <v>10.6128638814606</v>
+        <v>6.121170758278593</v>
       </c>
       <c r="F20">
-        <v>50.35060189353506</v>
+        <v>38.05595407518562</v>
       </c>
       <c r="I20">
-        <v>36.0993188889091</v>
+        <v>25.31854411057133</v>
       </c>
       <c r="J20">
-        <v>9.913671411600694</v>
+        <v>5.678613257978752</v>
       </c>
       <c r="K20">
-        <v>17.67549424776279</v>
+        <v>15.98727036866279</v>
       </c>
       <c r="L20">
-        <v>12.04075573302323</v>
+        <v>7.792466014930207</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.30477140157489</v>
+        <v>15.75148650370848</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19816371798312</v>
+        <v>20.1210534676616</v>
       </c>
       <c r="C21">
-        <v>7.039188570256455</v>
+        <v>9.955253866296031</v>
       </c>
       <c r="D21">
-        <v>4.753075236193998</v>
+        <v>2.796624289795295</v>
       </c>
       <c r="E21">
-        <v>10.59980066704343</v>
+        <v>6.165988420757245</v>
       </c>
       <c r="F21">
-        <v>50.39449593822697</v>
+        <v>38.94581671213471</v>
       </c>
       <c r="I21">
-        <v>36.07035257770094</v>
+        <v>25.61052504462513</v>
       </c>
       <c r="J21">
-        <v>9.895598081044865</v>
+        <v>5.63730973801844</v>
       </c>
       <c r="K21">
-        <v>17.81492213240165</v>
+        <v>16.80510062545934</v>
       </c>
       <c r="L21">
-        <v>12.0408103007917</v>
+        <v>7.968781442463994</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.24231382489119</v>
+        <v>15.52513434731541</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.33028306839995</v>
+        <v>20.77977089076723</v>
       </c>
       <c r="C22">
-        <v>7.156562603624883</v>
+        <v>10.35107411197306</v>
       </c>
       <c r="D22">
-        <v>4.757478978574115</v>
+        <v>2.863776264977367</v>
       </c>
       <c r="E22">
-        <v>10.59215930631887</v>
+        <v>6.197209979187454</v>
       </c>
       <c r="F22">
-        <v>50.43116074818019</v>
+        <v>39.54798247917465</v>
       </c>
       <c r="I22">
-        <v>36.05634098336435</v>
+        <v>25.81845134273066</v>
       </c>
       <c r="J22">
-        <v>9.884341366441765</v>
+        <v>5.611334369246975</v>
       </c>
       <c r="K22">
-        <v>17.90871106935071</v>
+        <v>17.32963031637822</v>
       </c>
       <c r="L22">
-        <v>12.04232395488627</v>
+        <v>8.086199027680438</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.20316871881346</v>
+        <v>15.38112705108007</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.25952877586883</v>
+        <v>20.42961441455734</v>
       </c>
       <c r="C23">
-        <v>7.094014835495543</v>
+        <v>10.14100411343659</v>
       </c>
       <c r="D23">
-        <v>4.755089111370555</v>
+        <v>2.828047270573547</v>
       </c>
       <c r="E23">
-        <v>10.59615580867614</v>
+        <v>6.180367802278472</v>
       </c>
       <c r="F23">
-        <v>50.41086363071562</v>
+        <v>39.22468938275732</v>
       </c>
       <c r="I23">
-        <v>36.06336901854228</v>
+        <v>25.70586703383063</v>
       </c>
       <c r="J23">
-        <v>9.89029860490766</v>
+        <v>5.625104666138863</v>
       </c>
       <c r="K23">
-        <v>17.85841769647781</v>
+        <v>17.05060518462516</v>
       </c>
       <c r="L23">
-        <v>12.04138119667434</v>
+        <v>8.023333657656089</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.22390814899569</v>
+        <v>15.45761969546169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.99702361068582</v>
+        <v>19.07262192602447</v>
       </c>
       <c r="C24">
-        <v>6.855235076325024</v>
+        <v>9.318901092574141</v>
       </c>
       <c r="D24">
-        <v>4.746911346765055</v>
+        <v>2.690344654645649</v>
       </c>
       <c r="E24">
-        <v>10.61309255973048</v>
+        <v>6.120470396152991</v>
       </c>
       <c r="F24">
-        <v>50.35001945691521</v>
+        <v>38.04175272655645</v>
       </c>
       <c r="I24">
-        <v>36.09987535606176</v>
+        <v>25.31405048925232</v>
       </c>
       <c r="J24">
-        <v>9.913976212330759</v>
+        <v>5.679305542670942</v>
       </c>
       <c r="K24">
-        <v>17.67326198107827</v>
+        <v>15.97373893977828</v>
       </c>
       <c r="L24">
-        <v>12.04077986643751</v>
+        <v>7.789621761971419</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.30582054637197</v>
+        <v>15.75525088781688</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72679021536637</v>
+        <v>17.54532204085556</v>
       </c>
       <c r="C25">
-        <v>6.595233653642055</v>
+        <v>8.372997934603612</v>
       </c>
       <c r="D25">
-        <v>4.73999069228355</v>
+        <v>2.537183564659399</v>
       </c>
       <c r="E25">
-        <v>10.63522587763115</v>
+        <v>6.063957850683365</v>
       </c>
       <c r="F25">
-        <v>50.31876473596024</v>
+        <v>36.85219147268533</v>
       </c>
       <c r="I25">
-        <v>36.16035954471083</v>
+        <v>24.96034302283857</v>
       </c>
       <c r="J25">
-        <v>9.941912884130458</v>
+        <v>5.742146026141801</v>
       </c>
       <c r="K25">
-        <v>17.48570213262312</v>
+        <v>14.77153764787807</v>
       </c>
       <c r="L25">
-        <v>12.04650844682682</v>
+        <v>7.547224844222244</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.40138365050888</v>
+        <v>16.09253356034207</v>
       </c>
       <c r="O25">
         <v>0</v>
